--- a/stock_historical_data/1wk/NLCINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/NLCINDIA.NS.xlsx
@@ -70021,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NLCINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/NLCINDIA.NS.xlsx
@@ -66346,7 +66346,9 @@
       <c r="P1243" t="n">
         <v>0</v>
       </c>
-      <c r="Q1243" t="inlineStr"/>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NLCINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/NLCINDIA.NS.xlsx
@@ -70133,7 +70133,9 @@
       <c r="Q1244" t="n">
         <v>2</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NLCINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/NLCINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1244"/>
+  <dimension ref="A1:R1246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70137,6 +70137,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>231.9400024414062</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>240.9600067138672</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>228</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>234.6199951171875</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>234.6199951171875</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>17083618</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>233.9900054931641</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>250.9499969482422</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>229.8000030517578</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>240.1499938964844</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>240.1499938964844</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>43055738</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/NLCINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/NLCINDIA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1246"/>
+  <dimension ref="A1:R1281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -70069,7 +70069,7 @@
         <v>23</v>
       </c>
       <c r="O1243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1243" t="n">
         <v>0</v>
@@ -70189,7 +70189,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70243,7 +70245,1829 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>237.035152356763</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>264.9855353492667</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>233.3314781011886</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>258.2004089355469</v>
+      </c>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="n">
+        <v>66127565</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>265.4299802906387</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>286.4174671043172</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>250.1708458331044</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>275.6323547363281</v>
+      </c>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="n">
+        <v>69643405</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>276.540991258089</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>307.9481346375986</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>263.4546764931973</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>266.5065002441406</v>
+      </c>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="n">
+        <v>66741280</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>264.6892417579738</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>290.3680487941951</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>238.5561107355693</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>284.24462890625</v>
+      </c>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="n">
+        <v>41377269</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>286.3681012389038</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>297.726035453771</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>271.8496863167121</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>275.45458984375</v>
+      </c>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="n">
+        <v>23724427</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>261.7262950196185</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>274.5163279079397</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>250.1708351969609</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>261.7756652832031</v>
+      </c>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="n">
+        <v>25413525</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>261.2818396236824</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>267.5534002092251</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>252.8868453342125</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>258.4670715332031</v>
+      </c>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="n">
+        <v>10322416</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>259.0596655886379</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>272.5904347311628</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>255.8498144550281</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>272.0472412109375</v>
+      </c>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="n">
+        <v>12571079</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>275.0595608042485</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>284.4422029142678</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>268.6398583079196</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>271.7015686035156</v>
+      </c>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="n">
+        <v>17435867</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>272.244713557685</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>284.3433814877632</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>263.6522082957704</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>265.8250122070312</v>
+      </c>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="n">
+        <v>17375974</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>266.5657811749967</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>272.8373424040749</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>255.6522995350653</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>266.4670104980469</v>
+      </c>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="n">
+        <v>14525945</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>268.6398571725102</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>272.2941614035155</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>255.306628967257</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>265.7262878417969</v>
+      </c>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="n">
+        <v>15685005</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>269.3525290279657</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>290.4080910721208</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>265.9260191779889</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>287.4285278320312</v>
+      </c>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="n">
+        <v>22776891</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>286.2367185136372</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>294.778108821587</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>271.6368466259552</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>274.4674377441406</v>
+      </c>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="n">
+        <v>18165893</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>275.0633549339795</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>277.993240562178</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>255.4975444589266</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>264.2872619628906</v>
+      </c>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="n">
+        <v>9522690</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>264.3369131521911</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>269.5015015673047</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>251.2765003237812</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>263.0954284667969</v>
+      </c>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="n">
+        <v>5622536</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>263.1947413823404</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>263.2443886436336</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>232.6045570888208</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>237.5704956054688</v>
+      </c>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="n">
+        <v>10331088</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>231.9093261982827</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>259.3213125731641</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>230.0719229052248</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>256.7886657714844</v>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="n">
+        <v>4467412</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>256.7390196589276</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>262.0525798994919</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>246.7078178578994</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>251.8724060058594</v>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="n">
+        <v>4492934</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>250.2336469829931</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>250.4819439169224</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>229.9229608185437</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>230.7175140380859</v>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="n">
+        <v>3900814</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>230.4195456354843</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>264.1879273234432</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>224.7087163794324</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>259.5696105957031</v>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>14341990</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>261.0097125907194</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>264.1879253199453</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>252.2696730498726</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>257.0866394042969</v>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="n">
+        <v>6222349</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>259.4206373778521</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>268.7565956244431</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>254.7029958389685</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>264.4858703613281</v>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="n">
+        <v>5847281</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>268.1606812410284</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>274.2191323235957</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>250.9288684400849</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>255.5968627929688</v>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="n">
+        <v>6261681</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>255.0505944105795</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>259.4206446269855</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>233.3991142351888</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>234.8392333984375</v>
+      </c>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="n">
+        <v>7108418</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>238.3650602423493</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>243.1323644781648</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>231.2141114660473</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>237.222900390625</v>
+      </c>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="n">
+        <v>3495218</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>237.1732391466792</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>259.2220042973219</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>229.4760340382338</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>241.394287109375</v>
+      </c>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="n">
+        <v>12776956</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>240.3514223411983</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>247.7109468029399</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>225.7217718280008</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>238.4445037841797</v>
+      </c>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="n">
+        <v>10106045</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>238.3451913862876</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>238.3650593845922</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>220.8849489677851</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>228.9893646240234</v>
+      </c>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="n">
+        <v>4948607</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>230.4195463919007</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>234.6405941167523</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>218.471499573708</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>219.3951568603516</v>
+      </c>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="n">
+        <v>6705817</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>219.3951626596906</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>221.4411421057677</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>195.1911826212995</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>220.4082183837891</v>
+      </c>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="n">
+        <v>6918386</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>214.5285504044242</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>235.782761836259</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>203.7127365943948</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>215.0648651123047</v>
+      </c>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="n">
+        <v>47865350</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>216.5399932861328</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>217</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>190.0500030517578</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>194.2799987792969</v>
+      </c>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="n">
+        <v>5213950</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>193.4600067138672</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>234</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>186.0299987792969</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>223.7799987792969</v>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="n">
+        <v>32091219</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>222.6399993896484</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>202</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>207.0399932861328</v>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="n">
+        <v>6324713</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NLCINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/NLCINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1281"/>
+  <dimension ref="A1:R1285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70299,7 +70299,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70351,7 +70353,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70403,7 +70407,9 @@
       <c r="Q1249" t="n">
         <v>1</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70455,7 +70461,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70507,7 +70515,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70559,7 +70569,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70611,7 +70623,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70663,7 +70677,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70715,7 +70731,9 @@
       <c r="Q1255" t="n">
         <v>2</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70767,7 +70785,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70819,7 +70839,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70871,7 +70893,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70923,7 +70947,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -70975,7 +71001,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71027,7 +71055,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71079,7 +71109,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71131,7 +71163,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71183,7 +71217,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71235,7 +71271,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71287,7 +71325,9 @@
       <c r="Q1266" t="n">
         <v>2</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71339,7 +71379,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71391,7 +71433,9 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71443,7 +71487,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71495,7 +71541,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71547,7 +71595,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71599,7 +71649,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71651,7 +71703,9 @@
       <c r="Q1273" t="n">
         <v>1</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71703,7 +71757,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71755,7 +71811,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71807,7 +71865,9 @@
       <c r="Q1276" t="n">
         <v>2</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71859,7 +71919,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -71911,7 +71973,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -71963,7 +72027,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72007,7 +72073,7 @@
         <v>8</v>
       </c>
       <c r="O1280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1280" t="n">
         <v>0</v>
@@ -72015,7 +72081,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72067,7 +72135,217 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>212</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>237.3099975585938</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>197.0700073242188</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>225.0399932861328</v>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="n">
+        <v>26784640</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>224.5899963378906</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>231.3399963378906</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>215.1199951171875</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="n">
+        <v>14882180</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>227.8899993896484</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>269.0599975585938</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>225.5800018310547</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>257.489990234375</v>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="n">
+        <v>13690295</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>258</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>261.010009765625</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>240.4100036621094</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>244.6699981689453</v>
+      </c>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="n">
+        <v>11097216</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
